--- a/database/banco.xlsx
+++ b/database/banco.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ihorr\Desktop\Graduacao\1. CienciaComputacao\1. Semestre\1. APS\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE75EEBF-17A7-47C2-ADCD-8D48DF02F39A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342E048D-C66D-4190-A343-251E93ED704A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4845" yWindow="2940" windowWidth="21195" windowHeight="11925" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
   <si>
     <t>cod_empresa</t>
   </si>
@@ -243,7 +243,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -266,11 +266,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -280,6 +293,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -849,12 +865,13 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" customWidth="1"/>
     <col min="4" max="4" width="17.7109375" customWidth="1"/>
   </cols>
@@ -863,8 +880,8 @@
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>25</v>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>27</v>
@@ -880,15 +897,23 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -903,6 +928,9 @@
       </c>
       <c r="E1" s="1" t="s">
         <v>33</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -915,7 +943,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
